--- a/CTDC_Automation/TestData/WebData_canine_TC1.xlsx
+++ b/CTDC_Automation/TestData/WebData_canine_TC1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="195">
   <si>
     <t>Case ID</t>
   </si>
@@ -597,273 +597,6 @@
   </si>
   <si>
     <t>Vizsla</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010015</t>
-  </si>
-  <si>
-    <t>NCATS-COP01</t>
-  </si>
-  <si>
-    <t>Transcriptomics</t>
-  </si>
-  <si>
-    <t>Lymphoma :: Stage 3</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010031</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010045</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010072</t>
-  </si>
-  <si>
-    <t>Akita</t>
-  </si>
-  <si>
-    <t>Bone sarcomas :: Osteosarcoma (appendicular)</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010091</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010093</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010178</t>
-  </si>
-  <si>
-    <t>Staffordshire Bull Terrier</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010208</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010233</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010234</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010235</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010243</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010285</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of the respiratory tract cell type specified :: Lung adenocarcinoma (metastatic)</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010311</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB010378</t>
-  </si>
-  <si>
-    <t>Lip and oropharyngeal neoplasms malignant :: Melanoma-mucosa/mandible</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020018</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020026</t>
-  </si>
-  <si>
-    <t>Greyhound</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020027</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020031</t>
-  </si>
-  <si>
-    <t>Lymphoma :: Stage 4</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020035</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020036</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020054</t>
-  </si>
-  <si>
-    <t>Lymphoma :: Stage 2</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020128</t>
-  </si>
-  <si>
-    <t>Miniature Schnauzer</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030001</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030003</t>
-  </si>
-  <si>
-    <t>Lymphoma :: Stage 5</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030026</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030035</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030064</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030077</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030078</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030156</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030162</t>
-  </si>
-  <si>
-    <t>Lip and oropharyngeal neoplasms malignant :: Melanoma-lingual</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030227</t>
-  </si>
-  <si>
-    <t>Lip and oropharyngeal neoplasms malignant :: Melanoma-mucosa/maxilla</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030255</t>
-  </si>
-  <si>
-    <t>Malignant neoplasm of the respiratory tract cell type specified :: Lung adenocarcinoma (single lung lobe)</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030258</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB030300</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB040184</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB040254</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB040382</t>
-  </si>
-  <si>
-    <t>Respiratory tract and pleural neoplasms malignant cell type unspecified NEC :: Other carcinoma</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050004</t>
-  </si>
-  <si>
-    <t>Bouvier des Flandres</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050022</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050096</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050170</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050177</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050216</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050227</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050297</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050327</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB060030</t>
-  </si>
-  <si>
-    <t>Giant Schnauzer</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB060034</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB060039</t>
-  </si>
-  <si>
-    <t>Cocker Spaniel</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB060051</t>
-  </si>
-  <si>
-    <t>Weimaraner</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB070003</t>
-  </si>
-  <si>
-    <t>German Shorthaired Pointer</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB070007</t>
-  </si>
-  <si>
-    <t>West Highland White Terrier</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB070013</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB070020</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB070034</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB070102</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB080012</t>
-  </si>
-  <si>
-    <t>Chinese Shar-Pei</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB080018</t>
   </si>
 </sst>
 </file>
@@ -908,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3127,1566 +2860,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>195</v>
-      </c>
-      <c r="B86" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" t="s">
-        <v>198</v>
-      </c>
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-      <c r="G86" t="s">
-        <v>140</v>
-      </c>
-      <c r="H86" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" t="s">
-        <v>120</v>
-      </c>
-      <c r="E87" t="s">
-        <v>198</v>
-      </c>
-      <c r="F87" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" t="s">
-        <v>197</v>
-      </c>
-      <c r="D88" t="s">
-        <v>49</v>
-      </c>
-      <c r="E88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F88" t="s">
-        <v>58</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>203</v>
-      </c>
-      <c r="B89" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" t="s">
-        <v>197</v>
-      </c>
-      <c r="D89" t="s">
-        <v>204</v>
-      </c>
-      <c r="E89" t="s">
-        <v>205</v>
-      </c>
-      <c r="F89" t="s">
-        <v>58</v>
-      </c>
-      <c r="G89" t="s">
-        <v>175</v>
-      </c>
-      <c r="H89" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>206</v>
-      </c>
-      <c r="B90" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" t="s">
-        <v>205</v>
-      </c>
-      <c r="F90" t="s">
-        <v>58</v>
-      </c>
-      <c r="G90" t="s">
-        <v>207</v>
-      </c>
-      <c r="H90" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>208</v>
-      </c>
-      <c r="B91" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" t="s">
-        <v>32</v>
-      </c>
-      <c r="E91" t="s">
-        <v>198</v>
-      </c>
-      <c r="F91" t="s">
-        <v>58</v>
-      </c>
-      <c r="G91" t="s">
-        <v>114</v>
-      </c>
-      <c r="H91" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>209</v>
-      </c>
-      <c r="B92" t="s">
-        <v>196</v>
-      </c>
-      <c r="C92" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" t="s">
-        <v>210</v>
-      </c>
-      <c r="E92" t="s">
-        <v>198</v>
-      </c>
-      <c r="F92" t="s">
-        <v>58</v>
-      </c>
-      <c r="G92" t="s">
-        <v>114</v>
-      </c>
-      <c r="H92" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>211</v>
-      </c>
-      <c r="B93" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" t="s">
-        <v>198</v>
-      </c>
-      <c r="F93" t="s">
-        <v>58</v>
-      </c>
-      <c r="G93" t="s">
-        <v>182</v>
-      </c>
-      <c r="H93" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" t="s">
-        <v>197</v>
-      </c>
-      <c r="D94" t="s">
-        <v>23</v>
-      </c>
-      <c r="E94" t="s">
-        <v>198</v>
-      </c>
-      <c r="F94" t="s">
-        <v>58</v>
-      </c>
-      <c r="G94" t="s">
-        <v>109</v>
-      </c>
-      <c r="H94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>213</v>
-      </c>
-      <c r="B95" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" t="s">
-        <v>198</v>
-      </c>
-      <c r="F95" t="s">
-        <v>58</v>
-      </c>
-      <c r="G95" t="s">
-        <v>114</v>
-      </c>
-      <c r="H95" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>214</v>
-      </c>
-      <c r="B96" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" t="s">
-        <v>198</v>
-      </c>
-      <c r="F96" t="s">
-        <v>58</v>
-      </c>
-      <c r="G96" t="s">
-        <v>21</v>
-      </c>
-      <c r="H96" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>215</v>
-      </c>
-      <c r="B97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" t="s">
-        <v>198</v>
-      </c>
-      <c r="F97" t="s">
-        <v>58</v>
-      </c>
-      <c r="G97" t="s">
-        <v>114</v>
-      </c>
-      <c r="H97" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>216</v>
-      </c>
-      <c r="B98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" t="s">
-        <v>197</v>
-      </c>
-      <c r="D98" t="s">
-        <v>42</v>
-      </c>
-      <c r="E98" t="s">
-        <v>217</v>
-      </c>
-      <c r="F98" t="s">
-        <v>58</v>
-      </c>
-      <c r="G98" t="s">
-        <v>175</v>
-      </c>
-      <c r="H98" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>218</v>
-      </c>
-      <c r="B99" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" t="s">
-        <v>197</v>
-      </c>
-      <c r="D99" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" t="s">
-        <v>198</v>
-      </c>
-      <c r="F99" t="s">
-        <v>58</v>
-      </c>
-      <c r="G99" t="s">
-        <v>175</v>
-      </c>
-      <c r="H99" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>219</v>
-      </c>
-      <c r="B100" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" t="s">
-        <v>197</v>
-      </c>
-      <c r="D100" t="s">
-        <v>32</v>
-      </c>
-      <c r="E100" t="s">
-        <v>220</v>
-      </c>
-      <c r="F100" t="s">
-        <v>58</v>
-      </c>
-      <c r="G100" t="s">
-        <v>140</v>
-      </c>
-      <c r="H100" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" t="s">
-        <v>196</v>
-      </c>
-      <c r="C101" t="s">
-        <v>197</v>
-      </c>
-      <c r="D101" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" t="s">
-        <v>205</v>
-      </c>
-      <c r="F101" t="s">
-        <v>58</v>
-      </c>
-      <c r="G101" t="s">
-        <v>140</v>
-      </c>
-      <c r="H101" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>222</v>
-      </c>
-      <c r="B102" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" t="s">
-        <v>223</v>
-      </c>
-      <c r="E102" t="s">
-        <v>205</v>
-      </c>
-      <c r="F102" t="s">
-        <v>58</v>
-      </c>
-      <c r="G102" t="s">
-        <v>114</v>
-      </c>
-      <c r="H102" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>224</v>
-      </c>
-      <c r="B103" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" t="s">
-        <v>197</v>
-      </c>
-      <c r="D103" t="s">
-        <v>39</v>
-      </c>
-      <c r="E103" t="s">
-        <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>58</v>
-      </c>
-      <c r="G103" t="s">
-        <v>114</v>
-      </c>
-      <c r="H103" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>225</v>
-      </c>
-      <c r="B104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" t="s">
-        <v>197</v>
-      </c>
-      <c r="D104" t="s">
-        <v>90</v>
-      </c>
-      <c r="E104" t="s">
-        <v>226</v>
-      </c>
-      <c r="F104" t="s">
-        <v>58</v>
-      </c>
-      <c r="G104" t="s">
-        <v>21</v>
-      </c>
-      <c r="H104" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>227</v>
-      </c>
-      <c r="B105" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" t="s">
-        <v>197</v>
-      </c>
-      <c r="D105" t="s">
-        <v>60</v>
-      </c>
-      <c r="E105" t="s">
-        <v>226</v>
-      </c>
-      <c r="F105" t="s">
-        <v>58</v>
-      </c>
-      <c r="G105" t="s">
-        <v>207</v>
-      </c>
-      <c r="H105" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>228</v>
-      </c>
-      <c r="B106" t="s">
-        <v>196</v>
-      </c>
-      <c r="C106" t="s">
-        <v>197</v>
-      </c>
-      <c r="D106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" t="s">
-        <v>226</v>
-      </c>
-      <c r="F106" t="s">
-        <v>58</v>
-      </c>
-      <c r="G106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>229</v>
-      </c>
-      <c r="B107" t="s">
-        <v>196</v>
-      </c>
-      <c r="C107" t="s">
-        <v>197</v>
-      </c>
-      <c r="D107" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" t="s">
-        <v>230</v>
-      </c>
-      <c r="F107" t="s">
-        <v>58</v>
-      </c>
-      <c r="G107" t="s">
-        <v>114</v>
-      </c>
-      <c r="H107" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>231</v>
-      </c>
-      <c r="B108" t="s">
-        <v>196</v>
-      </c>
-      <c r="C108" t="s">
-        <v>197</v>
-      </c>
-      <c r="D108" t="s">
-        <v>232</v>
-      </c>
-      <c r="E108" t="s">
-        <v>220</v>
-      </c>
-      <c r="F108" t="s">
-        <v>58</v>
-      </c>
-      <c r="G108" t="s">
-        <v>175</v>
-      </c>
-      <c r="H108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>233</v>
-      </c>
-      <c r="B109" t="s">
-        <v>196</v>
-      </c>
-      <c r="C109" t="s">
-        <v>197</v>
-      </c>
-      <c r="D109" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" t="s">
-        <v>198</v>
-      </c>
-      <c r="F109" t="s">
-        <v>58</v>
-      </c>
-      <c r="G109" t="s">
-        <v>103</v>
-      </c>
-      <c r="H109" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>234</v>
-      </c>
-      <c r="B110" t="s">
-        <v>196</v>
-      </c>
-      <c r="C110" t="s">
-        <v>197</v>
-      </c>
-      <c r="D110" t="s">
-        <v>23</v>
-      </c>
-      <c r="E110" t="s">
-        <v>235</v>
-      </c>
-      <c r="F110" t="s">
-        <v>58</v>
-      </c>
-      <c r="G110" t="s">
-        <v>109</v>
-      </c>
-      <c r="H110" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>236</v>
-      </c>
-      <c r="B111" t="s">
-        <v>196</v>
-      </c>
-      <c r="C111" t="s">
-        <v>197</v>
-      </c>
-      <c r="D111" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" t="s">
-        <v>226</v>
-      </c>
-      <c r="F111" t="s">
-        <v>58</v>
-      </c>
-      <c r="G111" t="s">
-        <v>207</v>
-      </c>
-      <c r="H111" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>237</v>
-      </c>
-      <c r="B112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C112" t="s">
-        <v>197</v>
-      </c>
-      <c r="D112" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" t="s">
-        <v>205</v>
-      </c>
-      <c r="F112" t="s">
-        <v>58</v>
-      </c>
-      <c r="G112" t="s">
-        <v>21</v>
-      </c>
-      <c r="H112" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>238</v>
-      </c>
-      <c r="B113" t="s">
-        <v>196</v>
-      </c>
-      <c r="C113" t="s">
-        <v>197</v>
-      </c>
-      <c r="D113" t="s">
-        <v>60</v>
-      </c>
-      <c r="E113" t="s">
-        <v>205</v>
-      </c>
-      <c r="F113" t="s">
-        <v>58</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
-      <c r="H113" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>239</v>
-      </c>
-      <c r="B114" t="s">
-        <v>196</v>
-      </c>
-      <c r="C114" t="s">
-        <v>197</v>
-      </c>
-      <c r="D114" t="s">
-        <v>23</v>
-      </c>
-      <c r="E114" t="s">
-        <v>205</v>
-      </c>
-      <c r="F114" t="s">
-        <v>58</v>
-      </c>
-      <c r="G114" t="s">
-        <v>175</v>
-      </c>
-      <c r="H114" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>240</v>
-      </c>
-      <c r="B115" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" t="s">
-        <v>197</v>
-      </c>
-      <c r="D115" t="s">
-        <v>23</v>
-      </c>
-      <c r="E115" t="s">
-        <v>205</v>
-      </c>
-      <c r="F115" t="s">
-        <v>58</v>
-      </c>
-      <c r="G115" t="s">
-        <v>207</v>
-      </c>
-      <c r="H115" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>241</v>
-      </c>
-      <c r="B116" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" t="s">
-        <v>197</v>
-      </c>
-      <c r="D116" t="s">
-        <v>23</v>
-      </c>
-      <c r="E116" t="s">
-        <v>198</v>
-      </c>
-      <c r="F116" t="s">
-        <v>58</v>
-      </c>
-      <c r="G116" t="s">
-        <v>242</v>
-      </c>
-      <c r="H116" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B117" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" t="s">
-        <v>197</v>
-      </c>
-      <c r="D117" t="s">
-        <v>32</v>
-      </c>
-      <c r="E117" t="s">
-        <v>244</v>
-      </c>
-      <c r="F117" t="s">
-        <v>58</v>
-      </c>
-      <c r="G117" t="s">
-        <v>140</v>
-      </c>
-      <c r="H117" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>245</v>
-      </c>
-      <c r="B118" t="s">
-        <v>196</v>
-      </c>
-      <c r="C118" t="s">
-        <v>197</v>
-      </c>
-      <c r="D118" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" t="s">
-        <v>246</v>
-      </c>
-      <c r="F118" t="s">
-        <v>58</v>
-      </c>
-      <c r="G118" t="s">
-        <v>168</v>
-      </c>
-      <c r="H118" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>247</v>
-      </c>
-      <c r="B119" t="s">
-        <v>196</v>
-      </c>
-      <c r="C119" t="s">
-        <v>197</v>
-      </c>
-      <c r="D119" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" t="s">
-        <v>248</v>
-      </c>
-      <c r="F119" t="s">
-        <v>58</v>
-      </c>
-      <c r="G119" t="s">
-        <v>114</v>
-      </c>
-      <c r="H119" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>249</v>
-      </c>
-      <c r="B120" t="s">
-        <v>196</v>
-      </c>
-      <c r="C120" t="s">
-        <v>197</v>
-      </c>
-      <c r="D120" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" t="s">
-        <v>230</v>
-      </c>
-      <c r="F120" t="s">
-        <v>58</v>
-      </c>
-      <c r="G120" t="s">
-        <v>207</v>
-      </c>
-      <c r="H120" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>250</v>
-      </c>
-      <c r="B121" t="s">
-        <v>196</v>
-      </c>
-      <c r="C121" t="s">
-        <v>197</v>
-      </c>
-      <c r="D121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" t="s">
-        <v>198</v>
-      </c>
-      <c r="F121" t="s">
-        <v>58</v>
-      </c>
-      <c r="G121" t="s">
-        <v>207</v>
-      </c>
-      <c r="H121" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>251</v>
-      </c>
-      <c r="B122" t="s">
-        <v>196</v>
-      </c>
-      <c r="C122" t="s">
-        <v>197</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>226</v>
-      </c>
-      <c r="F122" t="s">
-        <v>58</v>
-      </c>
-      <c r="G122" t="s">
-        <v>242</v>
-      </c>
-      <c r="H122" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>252</v>
-      </c>
-      <c r="B123" t="s">
-        <v>196</v>
-      </c>
-      <c r="C123" t="s">
-        <v>197</v>
-      </c>
-      <c r="D123" t="s">
-        <v>71</v>
-      </c>
-      <c r="E123" t="s">
-        <v>217</v>
-      </c>
-      <c r="F123" t="s">
-        <v>58</v>
-      </c>
-      <c r="G123" t="s">
-        <v>168</v>
-      </c>
-      <c r="H123" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>253</v>
-      </c>
-      <c r="B124" t="s">
-        <v>196</v>
-      </c>
-      <c r="C124" t="s">
-        <v>197</v>
-      </c>
-      <c r="D124" t="s">
-        <v>177</v>
-      </c>
-      <c r="E124" t="s">
-        <v>254</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-      <c r="G124" t="s">
-        <v>175</v>
-      </c>
-      <c r="H124" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>255</v>
-      </c>
-      <c r="B125" t="s">
-        <v>196</v>
-      </c>
-      <c r="C125" t="s">
-        <v>197</v>
-      </c>
-      <c r="D125" t="s">
-        <v>256</v>
-      </c>
-      <c r="E125" t="s">
-        <v>198</v>
-      </c>
-      <c r="F125" t="s">
-        <v>58</v>
-      </c>
-      <c r="G125" t="s">
-        <v>168</v>
-      </c>
-      <c r="H125" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>257</v>
-      </c>
-      <c r="B126" t="s">
-        <v>196</v>
-      </c>
-      <c r="C126" t="s">
-        <v>197</v>
-      </c>
-      <c r="D126" t="s">
-        <v>223</v>
-      </c>
-      <c r="E126" t="s">
-        <v>205</v>
-      </c>
-      <c r="F126" t="s">
-        <v>58</v>
-      </c>
-      <c r="G126" t="s">
-        <v>175</v>
-      </c>
-      <c r="H126" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>258</v>
-      </c>
-      <c r="B127" t="s">
-        <v>196</v>
-      </c>
-      <c r="C127" t="s">
-        <v>197</v>
-      </c>
-      <c r="D127" t="s">
-        <v>60</v>
-      </c>
-      <c r="E127" t="s">
-        <v>220</v>
-      </c>
-      <c r="F127" t="s">
-        <v>58</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
-      <c r="H127" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>259</v>
-      </c>
-      <c r="B128" t="s">
-        <v>196</v>
-      </c>
-      <c r="C128" t="s">
-        <v>197</v>
-      </c>
-      <c r="D128" t="s">
-        <v>39</v>
-      </c>
-      <c r="E128" t="s">
-        <v>246</v>
-      </c>
-      <c r="F128" t="s">
-        <v>58</v>
-      </c>
-      <c r="G128" t="s">
-        <v>175</v>
-      </c>
-      <c r="H128" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>260</v>
-      </c>
-      <c r="B129" t="s">
-        <v>196</v>
-      </c>
-      <c r="C129" t="s">
-        <v>197</v>
-      </c>
-      <c r="D129" t="s">
-        <v>126</v>
-      </c>
-      <c r="E129" t="s">
-        <v>246</v>
-      </c>
-      <c r="F129" t="s">
-        <v>58</v>
-      </c>
-      <c r="G129" t="s">
-        <v>168</v>
-      </c>
-      <c r="H129" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>261</v>
-      </c>
-      <c r="B130" t="s">
-        <v>196</v>
-      </c>
-      <c r="C130" t="s">
-        <v>197</v>
-      </c>
-      <c r="D130" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" t="s">
-        <v>248</v>
-      </c>
-      <c r="F130" t="s">
-        <v>58</v>
-      </c>
-      <c r="G130" t="s">
-        <v>168</v>
-      </c>
-      <c r="H130" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>262</v>
-      </c>
-      <c r="B131" t="s">
-        <v>196</v>
-      </c>
-      <c r="C131" t="s">
-        <v>197</v>
-      </c>
-      <c r="D131" t="s">
-        <v>60</v>
-      </c>
-      <c r="E131" t="s">
-        <v>248</v>
-      </c>
-      <c r="F131" t="s">
-        <v>58</v>
-      </c>
-      <c r="G131" t="s">
-        <v>263</v>
-      </c>
-      <c r="H131" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>264</v>
-      </c>
-      <c r="B132" t="s">
-        <v>196</v>
-      </c>
-      <c r="C132" t="s">
-        <v>197</v>
-      </c>
-      <c r="D132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" t="s">
-        <v>248</v>
-      </c>
-      <c r="F132" t="s">
-        <v>58</v>
-      </c>
-      <c r="G132" t="s">
-        <v>175</v>
-      </c>
-      <c r="H132" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>265</v>
-      </c>
-      <c r="B133" t="s">
-        <v>196</v>
-      </c>
-      <c r="C133" t="s">
-        <v>197</v>
-      </c>
-      <c r="D133" t="s">
-        <v>42</v>
-      </c>
-      <c r="E133" t="s">
-        <v>248</v>
-      </c>
-      <c r="F133" t="s">
-        <v>58</v>
-      </c>
-      <c r="G133" t="s">
-        <v>21</v>
-      </c>
-      <c r="H133" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>266</v>
-      </c>
-      <c r="B134" t="s">
-        <v>196</v>
-      </c>
-      <c r="C134" t="s">
-        <v>197</v>
-      </c>
-      <c r="D134" t="s">
-        <v>267</v>
-      </c>
-      <c r="E134" t="s">
-        <v>220</v>
-      </c>
-      <c r="F134" t="s">
-        <v>58</v>
-      </c>
-      <c r="G134" t="s">
-        <v>140</v>
-      </c>
-      <c r="H134" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" t="s">
-        <v>196</v>
-      </c>
-      <c r="C135" t="s">
-        <v>197</v>
-      </c>
-      <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" t="s">
-        <v>235</v>
-      </c>
-      <c r="F135" t="s">
-        <v>58</v>
-      </c>
-      <c r="G135" t="s">
-        <v>242</v>
-      </c>
-      <c r="H135" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" t="s">
-        <v>196</v>
-      </c>
-      <c r="C136" t="s">
-        <v>197</v>
-      </c>
-      <c r="D136" t="s">
-        <v>270</v>
-      </c>
-      <c r="E136" t="s">
-        <v>220</v>
-      </c>
-      <c r="F136" t="s">
-        <v>58</v>
-      </c>
-      <c r="G136" t="s">
-        <v>175</v>
-      </c>
-      <c r="H136" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" t="s">
-        <v>196</v>
-      </c>
-      <c r="C137" t="s">
-        <v>197</v>
-      </c>
-      <c r="D137" t="s">
-        <v>272</v>
-      </c>
-      <c r="E137" t="s">
-        <v>248</v>
-      </c>
-      <c r="F137" t="s">
-        <v>58</v>
-      </c>
-      <c r="G137" t="s">
-        <v>168</v>
-      </c>
-      <c r="H137" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>273</v>
-      </c>
-      <c r="B138" t="s">
-        <v>196</v>
-      </c>
-      <c r="C138" t="s">
-        <v>197</v>
-      </c>
-      <c r="D138" t="s">
-        <v>274</v>
-      </c>
-      <c r="E138" t="s">
-        <v>205</v>
-      </c>
-      <c r="F138" t="s">
-        <v>58</v>
-      </c>
-      <c r="G138" t="s">
-        <v>140</v>
-      </c>
-      <c r="H138" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" t="s">
-        <v>196</v>
-      </c>
-      <c r="C139" t="s">
-        <v>197</v>
-      </c>
-      <c r="D139" t="s">
-        <v>276</v>
-      </c>
-      <c r="E139" t="s">
-        <v>248</v>
-      </c>
-      <c r="F139" t="s">
-        <v>58</v>
-      </c>
-      <c r="G139" t="s">
-        <v>109</v>
-      </c>
-      <c r="H139" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>277</v>
-      </c>
-      <c r="B140" t="s">
-        <v>196</v>
-      </c>
-      <c r="C140" t="s">
-        <v>197</v>
-      </c>
-      <c r="D140" t="s">
-        <v>126</v>
-      </c>
-      <c r="E140" t="s">
-        <v>205</v>
-      </c>
-      <c r="F140" t="s">
-        <v>58</v>
-      </c>
-      <c r="G140" t="s">
-        <v>263</v>
-      </c>
-      <c r="H140" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>278</v>
-      </c>
-      <c r="B141" t="s">
-        <v>196</v>
-      </c>
-      <c r="C141" t="s">
-        <v>197</v>
-      </c>
-      <c r="D141" t="s">
-        <v>23</v>
-      </c>
-      <c r="E141" t="s">
-        <v>248</v>
-      </c>
-      <c r="F141" t="s">
-        <v>58</v>
-      </c>
-      <c r="G141" t="s">
-        <v>168</v>
-      </c>
-      <c r="H141" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>279</v>
-      </c>
-      <c r="B142" t="s">
-        <v>196</v>
-      </c>
-      <c r="C142" t="s">
-        <v>197</v>
-      </c>
-      <c r="D142" t="s">
-        <v>142</v>
-      </c>
-      <c r="E142" t="s">
-        <v>248</v>
-      </c>
-      <c r="F142" t="s">
-        <v>58</v>
-      </c>
-      <c r="G142" t="s">
-        <v>207</v>
-      </c>
-      <c r="H142" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>280</v>
-      </c>
-      <c r="B143" t="s">
-        <v>196</v>
-      </c>
-      <c r="C143" t="s">
-        <v>197</v>
-      </c>
-      <c r="D143" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" t="s">
-        <v>220</v>
-      </c>
-      <c r="F143" t="s">
-        <v>58</v>
-      </c>
-      <c r="G143" t="s">
-        <v>140</v>
-      </c>
-      <c r="H143" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>281</v>
-      </c>
-      <c r="B144" t="s">
-        <v>196</v>
-      </c>
-      <c r="C144" t="s">
-        <v>197</v>
-      </c>
-      <c r="D144" t="s">
-        <v>282</v>
-      </c>
-      <c r="E144" t="s">
-        <v>220</v>
-      </c>
-      <c r="F144" t="s">
-        <v>58</v>
-      </c>
-      <c r="G144" t="s">
-        <v>207</v>
-      </c>
-      <c r="H144" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>283</v>
-      </c>
-      <c r="B145" t="s">
-        <v>196</v>
-      </c>
-      <c r="C145" t="s">
-        <v>197</v>
-      </c>
-      <c r="D145" t="s">
-        <v>42</v>
-      </c>
-      <c r="E145" t="s">
-        <v>246</v>
-      </c>
-      <c r="F145" t="s">
-        <v>58</v>
-      </c>
-      <c r="G145" t="s">
-        <v>207</v>
-      </c>
-      <c r="H145" t="s">
-        <v>202</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CTDC_Automation/TestData/WebData_canine_TC1.xlsx
+++ b/CTDC_Automation/TestData/WebData_canine_TC1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="286">
   <si>
     <t>Case ID</t>
   </si>
@@ -614,6 +614,9 @@
     <t>Male</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>NCATS-COP01CCB010031</t>
   </si>
   <si>
@@ -693,6 +696,9 @@
   </si>
   <si>
     <t>Lymphoma :: Stage 4</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>NCATS-COP01CCB020035</t>
@@ -3152,10 +3158,13 @@
       <c r="H86" t="s">
         <v>199</v>
       </c>
+      <c r="I86" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B87" t="s">
         <v>196</v>
@@ -3178,10 +3187,13 @@
       <c r="H87" t="s">
         <v>199</v>
       </c>
+      <c r="I87" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88" t="s">
         <v>196</v>
@@ -3202,12 +3214,15 @@
         <v>103</v>
       </c>
       <c r="H88" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I88" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B89" t="s">
         <v>196</v>
@@ -3216,10 +3231,10 @@
         <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F89" t="s">
         <v>58</v>
@@ -3228,12 +3243,15 @@
         <v>175</v>
       </c>
       <c r="H89" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I89" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B90" t="s">
         <v>196</v>
@@ -3245,21 +3263,24 @@
         <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F90" t="s">
         <v>58</v>
       </c>
       <c r="G90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H90" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I90" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B91" t="s">
         <v>196</v>
@@ -3282,10 +3303,13 @@
       <c r="H91" t="s">
         <v>199</v>
       </c>
+      <c r="I91" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
         <v>196</v>
@@ -3294,7 +3318,7 @@
         <v>197</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E92" t="s">
         <v>198</v>
@@ -3308,10 +3332,13 @@
       <c r="H92" t="s">
         <v>199</v>
       </c>
+      <c r="I92" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s">
         <v>196</v>
@@ -3332,12 +3359,15 @@
         <v>182</v>
       </c>
       <c r="H93" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I93" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B94" t="s">
         <v>196</v>
@@ -3360,10 +3390,13 @@
       <c r="H94" t="s">
         <v>199</v>
       </c>
+      <c r="I94" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B95" t="s">
         <v>196</v>
@@ -3386,10 +3419,13 @@
       <c r="H95" t="s">
         <v>199</v>
       </c>
+      <c r="I95" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
         <v>196</v>
@@ -3410,12 +3446,15 @@
         <v>21</v>
       </c>
       <c r="H96" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I96" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B97" t="s">
         <v>196</v>
@@ -3436,12 +3475,15 @@
         <v>114</v>
       </c>
       <c r="H97" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I97" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s">
         <v>196</v>
@@ -3453,7 +3495,7 @@
         <v>42</v>
       </c>
       <c r="E98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F98" t="s">
         <v>58</v>
@@ -3462,12 +3504,15 @@
         <v>175</v>
       </c>
       <c r="H98" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I98" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B99" t="s">
         <v>196</v>
@@ -3488,12 +3533,15 @@
         <v>175</v>
       </c>
       <c r="H99" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I99" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B100" t="s">
         <v>196</v>
@@ -3505,7 +3553,7 @@
         <v>32</v>
       </c>
       <c r="E100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F100" t="s">
         <v>58</v>
@@ -3514,12 +3562,15 @@
         <v>140</v>
       </c>
       <c r="H100" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I100" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B101" t="s">
         <v>196</v>
@@ -3531,7 +3582,7 @@
         <v>32</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F101" t="s">
         <v>58</v>
@@ -3542,10 +3593,13 @@
       <c r="H101" t="s">
         <v>199</v>
       </c>
+      <c r="I101" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B102" t="s">
         <v>196</v>
@@ -3554,10 +3608,10 @@
         <v>197</v>
       </c>
       <c r="D102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F102" t="s">
         <v>58</v>
@@ -3568,10 +3622,13 @@
       <c r="H102" t="s">
         <v>199</v>
       </c>
+      <c r="I102" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B103" t="s">
         <v>196</v>
@@ -3583,7 +3640,7 @@
         <v>39</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F103" t="s">
         <v>58</v>
@@ -3592,12 +3649,15 @@
         <v>114</v>
       </c>
       <c r="H103" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I103" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B104" t="s">
         <v>196</v>
@@ -3609,7 +3669,7 @@
         <v>90</v>
       </c>
       <c r="E104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F104" t="s">
         <v>58</v>
@@ -3620,10 +3680,13 @@
       <c r="H104" t="s">
         <v>199</v>
       </c>
+      <c r="I104" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B105" t="s">
         <v>196</v>
@@ -3635,21 +3698,24 @@
         <v>60</v>
       </c>
       <c r="E105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F105" t="s">
         <v>58</v>
       </c>
       <c r="G105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H105" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I105" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B106" t="s">
         <v>196</v>
@@ -3661,7 +3727,7 @@
         <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F106" t="s">
         <v>58</v>
@@ -3670,12 +3736,15 @@
         <v>175</v>
       </c>
       <c r="H106" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I106" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B107" t="s">
         <v>196</v>
@@ -3687,7 +3756,7 @@
         <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F107" t="s">
         <v>58</v>
@@ -3698,10 +3767,13 @@
       <c r="H107" t="s">
         <v>199</v>
       </c>
+      <c r="I107" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B108" t="s">
         <v>196</v>
@@ -3710,10 +3782,10 @@
         <v>197</v>
       </c>
       <c r="D108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F108" t="s">
         <v>58</v>
@@ -3722,12 +3794,15 @@
         <v>175</v>
       </c>
       <c r="H108" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I108" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B109" t="s">
         <v>196</v>
@@ -3748,12 +3823,15 @@
         <v>103</v>
       </c>
       <c r="H109" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I109" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B110" t="s">
         <v>196</v>
@@ -3765,7 +3843,7 @@
         <v>23</v>
       </c>
       <c r="E110" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F110" t="s">
         <v>58</v>
@@ -3776,10 +3854,13 @@
       <c r="H110" t="s">
         <v>199</v>
       </c>
+      <c r="I110" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B111" t="s">
         <v>196</v>
@@ -3791,21 +3872,24 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F111" t="s">
         <v>58</v>
       </c>
       <c r="G111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H111" t="s">
         <v>199</v>
       </c>
+      <c r="I111" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B112" t="s">
         <v>196</v>
@@ -3817,7 +3901,7 @@
         <v>142</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
         <v>58</v>
@@ -3826,12 +3910,15 @@
         <v>21</v>
       </c>
       <c r="H112" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I112" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B113" t="s">
         <v>196</v>
@@ -3843,7 +3930,7 @@
         <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
         <v>58</v>
@@ -3852,12 +3939,15 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I113" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B114" t="s">
         <v>196</v>
@@ -3869,7 +3959,7 @@
         <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F114" t="s">
         <v>58</v>
@@ -3880,10 +3970,13 @@
       <c r="H114" t="s">
         <v>199</v>
       </c>
+      <c r="I114" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B115" t="s">
         <v>196</v>
@@ -3895,21 +3988,24 @@
         <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F115" t="s">
         <v>58</v>
       </c>
       <c r="G115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H115" t="s">
         <v>199</v>
       </c>
+      <c r="I115" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B116" t="s">
         <v>196</v>
@@ -3927,15 +4023,18 @@
         <v>58</v>
       </c>
       <c r="G116" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H116" t="s">
         <v>199</v>
       </c>
+      <c r="I116" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B117" t="s">
         <v>196</v>
@@ -3947,7 +4046,7 @@
         <v>32</v>
       </c>
       <c r="E117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F117" t="s">
         <v>58</v>
@@ -3956,12 +4055,15 @@
         <v>140</v>
       </c>
       <c r="H117" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I117" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B118" t="s">
         <v>196</v>
@@ -3973,7 +4075,7 @@
         <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F118" t="s">
         <v>58</v>
@@ -3984,10 +4086,13 @@
       <c r="H118" t="s">
         <v>199</v>
       </c>
+      <c r="I118" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B119" t="s">
         <v>196</v>
@@ -3999,7 +4104,7 @@
         <v>32</v>
       </c>
       <c r="E119" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F119" t="s">
         <v>58</v>
@@ -4008,12 +4113,15 @@
         <v>114</v>
       </c>
       <c r="H119" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I119" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s">
         <v>196</v>
@@ -4025,21 +4133,24 @@
         <v>23</v>
       </c>
       <c r="E120" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
         <v>58</v>
       </c>
       <c r="G120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H120" t="s">
         <v>199</v>
       </c>
+      <c r="I120" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B121" t="s">
         <v>196</v>
@@ -4057,15 +4168,18 @@
         <v>58</v>
       </c>
       <c r="G121" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H121" t="s">
         <v>199</v>
       </c>
+      <c r="I121" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B122" t="s">
         <v>196</v>
@@ -4077,21 +4191,24 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
         <v>58</v>
       </c>
       <c r="G122" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H122" t="s">
         <v>199</v>
       </c>
+      <c r="I122" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
         <v>196</v>
@@ -4103,7 +4220,7 @@
         <v>71</v>
       </c>
       <c r="E123" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
         <v>58</v>
@@ -4112,12 +4229,15 @@
         <v>168</v>
       </c>
       <c r="H123" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I123" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B124" t="s">
         <v>196</v>
@@ -4129,7 +4249,7 @@
         <v>177</v>
       </c>
       <c r="E124" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F124" t="s">
         <v>58</v>
@@ -4138,12 +4258,15 @@
         <v>175</v>
       </c>
       <c r="H124" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I124" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B125" t="s">
         <v>196</v>
@@ -4152,7 +4275,7 @@
         <v>197</v>
       </c>
       <c r="D125" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E125" t="s">
         <v>198</v>
@@ -4164,12 +4287,15 @@
         <v>168</v>
       </c>
       <c r="H125" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I125" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B126" t="s">
         <v>196</v>
@@ -4178,10 +4304,10 @@
         <v>197</v>
       </c>
       <c r="D126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E126" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F126" t="s">
         <v>58</v>
@@ -4192,10 +4318,13 @@
       <c r="H126" t="s">
         <v>199</v>
       </c>
+      <c r="I126" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B127" t="s">
         <v>196</v>
@@ -4207,7 +4336,7 @@
         <v>60</v>
       </c>
       <c r="E127" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F127" t="s">
         <v>58</v>
@@ -4218,10 +4347,13 @@
       <c r="H127" t="s">
         <v>199</v>
       </c>
+      <c r="I127" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B128" t="s">
         <v>196</v>
@@ -4233,7 +4365,7 @@
         <v>39</v>
       </c>
       <c r="E128" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
         <v>58</v>
@@ -4244,10 +4376,13 @@
       <c r="H128" t="s">
         <v>199</v>
       </c>
+      <c r="I128" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s">
         <v>196</v>
@@ -4259,7 +4394,7 @@
         <v>126</v>
       </c>
       <c r="E129" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
         <v>58</v>
@@ -4268,12 +4403,15 @@
         <v>168</v>
       </c>
       <c r="H129" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I129" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B130" t="s">
         <v>196</v>
@@ -4285,7 +4423,7 @@
         <v>32</v>
       </c>
       <c r="E130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
         <v>58</v>
@@ -4296,10 +4434,13 @@
       <c r="H130" t="s">
         <v>199</v>
       </c>
+      <c r="I130" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B131" t="s">
         <v>196</v>
@@ -4311,21 +4452,24 @@
         <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
         <v>58</v>
       </c>
       <c r="G131" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H131" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I131" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B132" t="s">
         <v>196</v>
@@ -4337,7 +4481,7 @@
         <v>29</v>
       </c>
       <c r="E132" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
         <v>58</v>
@@ -4346,12 +4490,15 @@
         <v>175</v>
       </c>
       <c r="H132" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I132" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
         <v>196</v>
@@ -4363,7 +4510,7 @@
         <v>42</v>
       </c>
       <c r="E133" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
         <v>58</v>
@@ -4374,10 +4521,13 @@
       <c r="H133" t="s">
         <v>199</v>
       </c>
+      <c r="I133" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
         <v>196</v>
@@ -4386,10 +4536,10 @@
         <v>197</v>
       </c>
       <c r="D134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E134" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F134" t="s">
         <v>58</v>
@@ -4398,12 +4548,15 @@
         <v>140</v>
       </c>
       <c r="H134" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I134" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
         <v>196</v>
@@ -4415,21 +4568,24 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
         <v>58</v>
       </c>
       <c r="G135" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H135" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I135" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B136" t="s">
         <v>196</v>
@@ -4438,10 +4594,10 @@
         <v>197</v>
       </c>
       <c r="D136" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E136" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F136" t="s">
         <v>58</v>
@@ -4452,10 +4608,13 @@
       <c r="H136" t="s">
         <v>199</v>
       </c>
+      <c r="I136" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B137" t="s">
         <v>196</v>
@@ -4464,10 +4623,10 @@
         <v>197</v>
       </c>
       <c r="D137" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E137" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F137" t="s">
         <v>58</v>
@@ -4476,12 +4635,15 @@
         <v>168</v>
       </c>
       <c r="H137" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I137" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
         <v>196</v>
@@ -4490,10 +4652,10 @@
         <v>197</v>
       </c>
       <c r="D138" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F138" t="s">
         <v>58</v>
@@ -4502,12 +4664,15 @@
         <v>140</v>
       </c>
       <c r="H138" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I138" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B139" t="s">
         <v>196</v>
@@ -4516,10 +4681,10 @@
         <v>197</v>
       </c>
       <c r="D139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E139" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F139" t="s">
         <v>58</v>
@@ -4530,10 +4695,13 @@
       <c r="H139" t="s">
         <v>199</v>
       </c>
+      <c r="I139" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B140" t="s">
         <v>196</v>
@@ -4545,21 +4713,24 @@
         <v>126</v>
       </c>
       <c r="E140" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F140" t="s">
         <v>58</v>
       </c>
       <c r="G140" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H140" t="s">
         <v>199</v>
       </c>
+      <c r="I140" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B141" t="s">
         <v>196</v>
@@ -4571,7 +4742,7 @@
         <v>23</v>
       </c>
       <c r="E141" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F141" t="s">
         <v>58</v>
@@ -4580,12 +4751,15 @@
         <v>168</v>
       </c>
       <c r="H141" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I141" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B142" t="s">
         <v>196</v>
@@ -4597,21 +4771,24 @@
         <v>142</v>
       </c>
       <c r="E142" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F142" t="s">
         <v>58</v>
       </c>
       <c r="G142" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H142" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I142" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B143" t="s">
         <v>196</v>
@@ -4623,7 +4800,7 @@
         <v>32</v>
       </c>
       <c r="E143" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F143" t="s">
         <v>58</v>
@@ -4632,12 +4809,15 @@
         <v>140</v>
       </c>
       <c r="H143" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I143" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B144" t="s">
         <v>196</v>
@@ -4646,24 +4826,27 @@
         <v>197</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E144" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F144" t="s">
         <v>58</v>
       </c>
       <c r="G144" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H144" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I144" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B145" t="s">
         <v>196</v>
@@ -4675,16 +4858,19 @@
         <v>42</v>
       </c>
       <c r="E145" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F145" t="s">
         <v>58</v>
       </c>
       <c r="G145" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H145" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="I145" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
